--- a/report_data/df_trans_fee_usd_AW_t.xlsx
+++ b/report_data/df_trans_fee_usd_AW_t.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saint\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79DB24D-6E99-4518-B70F-A7AFC6531EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>SPY</t>
   </si>
@@ -77,13 +83,19 @@
   </si>
   <si>
     <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>Tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,21 +143,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -192,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +259,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +311,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,14 +504,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="10" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.15625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,386 +557,546 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>1.999511412791711</v>
-      </c>
-      <c r="C2">
-        <v>3.815556354970931</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="3">
+        <v>1.9995114127917111</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.8155563549709308</v>
+      </c>
+      <c r="D2" s="3">
         <v>1.511048919602036</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>3.269628302080382</v>
       </c>
-      <c r="F2">
-        <v>0.8460947438176472</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="3">
+        <v>0.84609474381764715</v>
+      </c>
+      <c r="G2" s="3">
         <v>1.957124799589383</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>2.755151476112212</v>
       </c>
-      <c r="I2">
-        <v>4.742905030249701</v>
-      </c>
-      <c r="J2">
-        <v>1.813913565274485</v>
-      </c>
-      <c r="K2">
-        <v>5.661685090481542</v>
-      </c>
-      <c r="L2">
+      <c r="I2" s="3">
+        <v>4.7429050302497009</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.8139135652744851</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5.6616850904815417</v>
+      </c>
+      <c r="L2" s="3">
         <v>16.05028071879789</v>
       </c>
+      <c r="M2" s="3">
+        <f>SUM(B2:L2)</f>
+        <v>44.42290041376792</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2.075463261214356</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1.222568540886112</v>
       </c>
-      <c r="D3">
-        <v>10.34999327485711</v>
-      </c>
-      <c r="E3">
-        <v>1.661262663486862</v>
-      </c>
-      <c r="F3">
-        <v>5.530090419206614</v>
-      </c>
-      <c r="G3">
-        <v>7.778100913977045</v>
-      </c>
-      <c r="H3">
-        <v>2.127745802614336</v>
-      </c>
-      <c r="I3">
-        <v>1.935141415985797</v>
-      </c>
-      <c r="J3">
-        <v>6.256360178311048</v>
-      </c>
-      <c r="K3">
-        <v>16.75139035540061</v>
-      </c>
-      <c r="L3">
-        <v>0.2863404072900764</v>
+      <c r="D3" s="3">
+        <v>10.349993274857111</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.6612626634868619</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.5300904192066138</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7.7781009139770454</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.1277458026143359</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.9351414159857969</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6.2563601783110476</v>
+      </c>
+      <c r="K3" s="3">
+        <v>16.751390355400609</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.28634040729007643</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M12" si="0">SUM(B3:L3)</f>
+        <v>55.97445723322997</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>0.2943964020381489</v>
-      </c>
-      <c r="C4">
-        <v>0.06279718303838831</v>
-      </c>
-      <c r="D4">
-        <v>0.06815863932373527</v>
-      </c>
-      <c r="E4">
-        <v>0.1658585299747397</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="3">
+        <v>0.29439640203814887</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.2797183038388313E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.8158639323735268E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.16585852997473971</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.1248075692183659</v>
       </c>
-      <c r="G4">
-        <v>0.08636252681030496</v>
-      </c>
-      <c r="H4">
-        <v>0.05542600229134114</v>
-      </c>
-      <c r="I4">
-        <v>4.414033547318351</v>
-      </c>
-      <c r="J4">
-        <v>4.244257014069799</v>
-      </c>
-      <c r="K4">
-        <v>5.803305608696435</v>
-      </c>
-      <c r="L4">
-        <v>4.436758621944642</v>
+      <c r="G4" s="3">
+        <v>8.6362526810304957E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5.5426002291341141E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.4140335473183514</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.2442570140697988</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5.8033056086964354</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4.4367586219446418</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
+        <v>19.756161644724251</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>0.3253422053454271</v>
-      </c>
-      <c r="C5">
-        <v>0.03461216598306383</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="3">
+        <v>0.32534220534542713</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.4612165983063832E-2</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.3971631099802142</v>
       </c>
-      <c r="E5">
-        <v>0.8945805550678239</v>
-      </c>
-      <c r="F5">
-        <v>0.4652915009399953</v>
-      </c>
-      <c r="G5">
-        <v>0.4920901686217795</v>
-      </c>
-      <c r="H5">
-        <v>0.5311498028139743</v>
-      </c>
-      <c r="I5">
+      <c r="E5" s="3">
+        <v>0.89458055506782386</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.46529150093999527</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.49209016862177951</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.53114980281397428</v>
+      </c>
+      <c r="I5" s="3">
         <v>2.967626562813563</v>
       </c>
-      <c r="J5">
-        <v>4.071677337387253</v>
-      </c>
-      <c r="K5">
-        <v>3.731005859921989</v>
-      </c>
-      <c r="L5">
-        <v>5.56016073112488</v>
-      </c>
+      <c r="J5" s="3">
+        <v>4.0716773373872526</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.7310058599219889</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5.5601607311248804</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="0"/>
+        <v>19.470699999999965</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>0.3415430755420888</v>
-      </c>
-      <c r="C6">
-        <v>0.007538710177515602</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="3">
+        <v>0.34154307554208879</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.5387101775156017E-3</v>
+      </c>
+      <c r="D6" s="3">
         <v>2.722877215112923</v>
       </c>
-      <c r="E6">
-        <v>1.403025948235438</v>
-      </c>
-      <c r="F6">
-        <v>2.027026410930888</v>
-      </c>
-      <c r="G6">
-        <v>2.133219757177444</v>
-      </c>
-      <c r="H6">
-        <v>0.6331790256698249</v>
-      </c>
-      <c r="I6">
-        <v>2.387859150337255</v>
-      </c>
-      <c r="J6">
+      <c r="E6" s="3">
+        <v>1.4030259482354379</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.0270264109308882</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.1332197571774438</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.63317902566982487</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.3878591503372548</v>
+      </c>
+      <c r="J6" s="3">
         <v>2.643612858296795</v>
       </c>
-      <c r="K6">
-        <v>4.30793542167148</v>
-      </c>
-      <c r="L6">
-        <v>0.4708598472033595</v>
-      </c>
+      <c r="K6" s="3">
+        <v>4.3079354216714796</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.47085984720335949</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>19.07867742035501</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>1.975404077981355</v>
-      </c>
-      <c r="C7">
-        <v>7.821750777806471</v>
-      </c>
-      <c r="D7">
-        <v>12.52897467480872</v>
-      </c>
-      <c r="E7">
-        <v>4.716819828962795</v>
-      </c>
-      <c r="F7">
-        <v>3.557864789676956</v>
-      </c>
-      <c r="G7">
-        <v>3.56174160455813</v>
-      </c>
-      <c r="H7">
+      <c r="B7" s="3">
+        <v>1.9754040779813551</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.8217507778064714</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12.528974674808721</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.7168198289627954</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.5578647896769562</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.5617416045581298</v>
+      </c>
+      <c r="H7" s="3">
         <v>2.79229912197719</v>
       </c>
-      <c r="I7">
-        <v>7.511915927448038</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="3">
+        <v>7.5119159274480376</v>
+      </c>
+      <c r="J7" s="3">
         <v>1.359205987451882</v>
       </c>
-      <c r="K7">
-        <v>41.15014450408245</v>
-      </c>
-      <c r="L7">
-        <v>5.514463456789202</v>
-      </c>
+      <c r="K7" s="3">
+        <v>41.150144504082448</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5.5144634567892021</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>92.490584751543182</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>0.7466435152323018</v>
-      </c>
-      <c r="C8">
-        <v>0.9197576920695458</v>
-      </c>
-      <c r="D8">
-        <v>2.511204080804554</v>
-      </c>
-      <c r="E8">
-        <v>0.3342260292349121</v>
-      </c>
-      <c r="F8">
-        <v>0.584967062511151</v>
-      </c>
-      <c r="G8">
+      <c r="B8" s="3">
+        <v>0.74664351523230177</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.91975769206954583</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.5112040808045539</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.33422602923491213</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.58496706251115105</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.8539942596595862</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>1.546725484342049</v>
       </c>
-      <c r="I8">
-        <v>3.92508769349235</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="3">
+        <v>3.9250876934923502</v>
+      </c>
+      <c r="J8" s="3">
         <v>2.403940046466019</v>
       </c>
-      <c r="K8">
-        <v>7.195888783162481</v>
-      </c>
-      <c r="L8">
-        <v>7.270916380654311</v>
-      </c>
+      <c r="K8" s="3">
+        <v>7.1958887831624807</v>
+      </c>
+      <c r="L8" s="3">
+        <v>7.2709163806543113</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>28.293351027629264</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>1.240690774324252</v>
-      </c>
-      <c r="C9">
-        <v>2.515327982134847</v>
-      </c>
-      <c r="D9">
-        <v>3.44111195147151</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="3">
+        <v>1.2406907743242519</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.5153279821348469</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.4411119514715098</v>
+      </c>
+      <c r="E9" s="3">
         <v>2.602537278241488</v>
       </c>
-      <c r="F9">
-        <v>4.064700427672133</v>
-      </c>
-      <c r="G9">
-        <v>2.24874611245911</v>
-      </c>
-      <c r="H9">
-        <v>2.052816217042907</v>
-      </c>
-      <c r="I9">
-        <v>2.010855366237076</v>
-      </c>
-      <c r="J9">
-        <v>2.168827868772033</v>
-      </c>
-      <c r="K9">
-        <v>2.99831877132694</v>
-      </c>
-      <c r="L9">
-        <v>14.71745236812128</v>
-      </c>
+      <c r="F9" s="3">
+        <v>4.0647004276721326</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.2487461124591102</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.0528162170429072</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.0108553662370761</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2.1688278687720328</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.9983187713269399</v>
+      </c>
+      <c r="L9" s="3">
+        <v>14.717452368121281</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>40.061385117803574</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>0.6909918978672849</v>
-      </c>
-      <c r="C10">
-        <v>2.12689106079417</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="3">
+        <v>0.69099189786728488</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.1268910607941698</v>
+      </c>
+      <c r="D10" s="3">
         <v>1.105858605286093</v>
       </c>
-      <c r="E10">
-        <v>2.48416026505754</v>
-      </c>
-      <c r="F10">
-        <v>0.790377254538518</v>
-      </c>
-      <c r="G10">
-        <v>0.04213262328526089</v>
-      </c>
-      <c r="H10">
-        <v>0.1461683828194681</v>
-      </c>
-      <c r="I10">
-        <v>5.209913187157888</v>
-      </c>
-      <c r="J10">
-        <v>5.869991533684158</v>
-      </c>
-      <c r="K10">
+      <c r="E10" s="3">
+        <v>2.4841602650575401</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.79037725453851804</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.2132623285260892E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.14616838281946809</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5.2099131871578876</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5.8699915336841579</v>
+      </c>
+      <c r="K10" s="3">
         <v>6.261809831808927</v>
       </c>
-      <c r="L10">
-        <v>6.947174262281436</v>
-      </c>
+      <c r="L10" s="3">
+        <v>6.9471742622814361</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="0"/>
+        <v>31.67546890458074</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>1.904524288688006</v>
-      </c>
-      <c r="C11">
-        <v>0.4998302486972234</v>
-      </c>
-      <c r="D11">
-        <v>3.63850679137312</v>
-      </c>
-      <c r="E11">
-        <v>0.8927895586155635</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="3">
+        <v>1.9045242886880061</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.49983024869722342</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.6385067913731199</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.89278955861556353</v>
+      </c>
+      <c r="F11" s="3">
         <v>3.352706570751816</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>5.000184403706724</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>1.762382233812938</v>
       </c>
-      <c r="I11">
-        <v>10.83577448795065</v>
-      </c>
-      <c r="J11">
-        <v>13.56023128376552</v>
-      </c>
-      <c r="K11">
+      <c r="I11" s="3">
+        <v>10.835774487950649</v>
+      </c>
+      <c r="J11" s="3">
+        <v>13.560231283765519</v>
+      </c>
+      <c r="K11" s="3">
         <v>18.5633813443586</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>12.8208766031757</v>
       </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>72.831187814895856</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <f>SUM(B2:B11)</f>
+        <v>11.59451091102493</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:L12" si="1">SUM(C2:C11)</f>
+        <v>19.026630716558262</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>38.274897262620016</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>18.424888958957546</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>21.343926749264085</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>24.153697169844769</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>14.403043549496241</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>45.941112368990673</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>44.392017673478989</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>112.42486557091144</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>74.075283397382776</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="0"/>
+        <v>424.05487432852976</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
